--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Grade</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>R8S9T0</t>
+  </si>
+  <si>
+    <t>عبدالرحمن محمد</t>
+  </si>
+  <si>
+    <t>R8S9T1</t>
   </si>
 </sst>
 </file>
@@ -648,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1217,6 +1223,17 @@
         <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>102</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Grade</t>
   </si>
@@ -30,310 +30,394 @@
     <t>Code</t>
   </si>
   <si>
-    <t>أحمد علي</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>مريم حسن</t>
-  </si>
-  <si>
-    <t>نور الدين</t>
-  </si>
-  <si>
-    <t>سارة مصطفى</t>
-  </si>
-  <si>
-    <t>علي رضا</t>
-  </si>
-  <si>
-    <t>ياسمين جمال</t>
-  </si>
-  <si>
-    <t>كريم محمد</t>
-  </si>
-  <si>
-    <t>هالة سامي</t>
-  </si>
-  <si>
-    <t>شريف عبد الله</t>
-  </si>
-  <si>
-    <t>منى أحمد</t>
-  </si>
-  <si>
-    <t>رامي عادل</t>
-  </si>
-  <si>
-    <t>آية محمود</t>
-  </si>
-  <si>
-    <t>حسن عباس</t>
-  </si>
-  <si>
-    <t>ندى عزيز</t>
-  </si>
-  <si>
-    <t>مينا جلال</t>
-  </si>
-  <si>
-    <t>زينب توفيق</t>
-  </si>
-  <si>
-    <t>عماد عبد الرحمن</t>
-  </si>
-  <si>
-    <t>سعاد عادل</t>
-  </si>
-  <si>
-    <t>فاطمة إسماعيل</t>
-  </si>
-  <si>
-    <t>حسام حسن</t>
-  </si>
-  <si>
-    <t>ليلى صلاح</t>
-  </si>
-  <si>
-    <t>يحيى مصطفى</t>
-  </si>
-  <si>
-    <t>شيماء هاني</t>
-  </si>
-  <si>
-    <t>رائد ناصر</t>
-  </si>
-  <si>
-    <t>غادة سعيد</t>
-  </si>
-  <si>
-    <t>لطيفة كريم</t>
-  </si>
-  <si>
-    <t>عمرو مدحت</t>
-  </si>
-  <si>
-    <t>مروان يوسف</t>
-  </si>
-  <si>
-    <t>هبة جمال</t>
-  </si>
-  <si>
-    <t>زكريا إبراهيم</t>
-  </si>
-  <si>
-    <t>أماني علي</t>
-  </si>
-  <si>
-    <t>فؤاد أحمد</t>
-  </si>
-  <si>
-    <t>مروة طارق</t>
-  </si>
-  <si>
-    <t>رنا فؤاد</t>
-  </si>
-  <si>
-    <t>سامي جاد</t>
-  </si>
-  <si>
-    <t>جميلة رجب</t>
-  </si>
-  <si>
-    <t>يوسف زكريا</t>
-  </si>
-  <si>
-    <t>منال عزيز</t>
-  </si>
-  <si>
-    <t>تامر شوقي</t>
-  </si>
-  <si>
-    <t>صفاء حمدي</t>
-  </si>
-  <si>
-    <t>مصطفى إبراهيم</t>
-  </si>
-  <si>
-    <t>حنان وليد</t>
-  </si>
-  <si>
-    <t>عادل حسن</t>
-  </si>
-  <si>
-    <t>سلوى حمد</t>
-  </si>
-  <si>
-    <t>محسن سامي</t>
-  </si>
-  <si>
-    <t>هالة محمد</t>
-  </si>
-  <si>
-    <t>ناصر عبد العزيز</t>
-  </si>
-  <si>
-    <t>نجلاء جمال</t>
-  </si>
-  <si>
-    <t>قاسم عادل</t>
-  </si>
-  <si>
-    <t>A1B2C3</t>
-  </si>
-  <si>
-    <t>D4E5F6</t>
-  </si>
-  <si>
-    <t>G7H8I9</t>
-  </si>
-  <si>
-    <t>J0K1L2</t>
-  </si>
-  <si>
-    <t>M3N4O5</t>
-  </si>
-  <si>
-    <t>P6Q7R8</t>
-  </si>
-  <si>
-    <t>S9T0U1</t>
-  </si>
-  <si>
-    <t>V2W3X4</t>
-  </si>
-  <si>
-    <t>Y5Z6A7</t>
-  </si>
-  <si>
-    <t>B8C9D0</t>
-  </si>
-  <si>
-    <t>E1F2G3</t>
-  </si>
-  <si>
-    <t>H4I5J6</t>
-  </si>
-  <si>
-    <t>K7L8M9</t>
-  </si>
-  <si>
-    <t>N0O1P2</t>
-  </si>
-  <si>
-    <t>Q3R4S5</t>
-  </si>
-  <si>
-    <t>T6U7V8</t>
-  </si>
-  <si>
-    <t>W9X0Y1</t>
-  </si>
-  <si>
-    <t>Z2A3B4</t>
-  </si>
-  <si>
-    <t>C5D6E7</t>
-  </si>
-  <si>
-    <t>F8G9H0</t>
-  </si>
-  <si>
-    <t>I1J2K3</t>
-  </si>
-  <si>
-    <t>L4M5N6</t>
-  </si>
-  <si>
-    <t>O7P8Q9</t>
-  </si>
-  <si>
-    <t>R0S1T2</t>
-  </si>
-  <si>
-    <t>U3V4W5</t>
-  </si>
-  <si>
-    <t>X6Y7Z8</t>
-  </si>
-  <si>
-    <t>A9B0C1</t>
-  </si>
-  <si>
-    <t>D2E3F4</t>
-  </si>
-  <si>
-    <t>G5H6I7</t>
-  </si>
-  <si>
-    <t>J8K9L0</t>
-  </si>
-  <si>
-    <t>M1N2O3</t>
-  </si>
-  <si>
-    <t>P4Q5R6</t>
-  </si>
-  <si>
-    <t>S7T8U9</t>
-  </si>
-  <si>
-    <t>V0W1X2</t>
-  </si>
-  <si>
-    <t>Y3Z4A5</t>
-  </si>
-  <si>
-    <t>B6C7D8</t>
-  </si>
-  <si>
-    <t>E9F0G1</t>
-  </si>
-  <si>
-    <t>H2I3J4</t>
-  </si>
-  <si>
-    <t>K5L6M7</t>
-  </si>
-  <si>
-    <t>N8O9P0</t>
-  </si>
-  <si>
-    <t>Q1R2S3</t>
-  </si>
-  <si>
-    <t>T4U5V6</t>
-  </si>
-  <si>
-    <t>W7X8Y9</t>
-  </si>
-  <si>
-    <t>Z0A1B2</t>
-  </si>
-  <si>
-    <t>C3D4E5</t>
-  </si>
-  <si>
-    <t>F6G7H8</t>
-  </si>
-  <si>
-    <t>I9J0K1</t>
-  </si>
-  <si>
-    <t>L2M3N4</t>
-  </si>
-  <si>
-    <t>O5P6Q7</t>
-  </si>
-  <si>
-    <t>R8S9T0</t>
-  </si>
-  <si>
-    <t>عبدالرحمن محمد</t>
-  </si>
-  <si>
-    <t>R8S9T1</t>
+    <t>علاء محمد صفوت حسان</t>
+  </si>
+  <si>
+    <t>يوسف رضا حسن</t>
+  </si>
+  <si>
+    <t>سامي هاني سامي</t>
+  </si>
+  <si>
+    <t>إيهاب راضي موسي</t>
+  </si>
+  <si>
+    <t>بيشوي ناصر رمسيس</t>
+  </si>
+  <si>
+    <t>خيري عاطف خيري</t>
+  </si>
+  <si>
+    <t>محمد ابراهيم سلطان</t>
+  </si>
+  <si>
+    <t>ساره محمد جمعه</t>
+  </si>
+  <si>
+    <t>احمد عيد سيد</t>
+  </si>
+  <si>
+    <t>خالد رجب عثمان</t>
+  </si>
+  <si>
+    <t>محمد ايمن على</t>
+  </si>
+  <si>
+    <t>حبيبه علي صادق</t>
+  </si>
+  <si>
+    <t>نجوى مصطفى احمد محمود</t>
+  </si>
+  <si>
+    <t>عبدالله محمود فتحى</t>
+  </si>
+  <si>
+    <t>محمد مصطفى عبدالعاطى محمد</t>
+  </si>
+  <si>
+    <t>محمد مختار محمد</t>
+  </si>
+  <si>
+    <t>هشام ايمن عطيه</t>
+  </si>
+  <si>
+    <t>محمد عمرو محمد</t>
+  </si>
+  <si>
+    <t>محمد أيمن محمد عبدالمنعم محمد</t>
+  </si>
+  <si>
+    <t>احمد رافت عطيه</t>
+  </si>
+  <si>
+    <t>عمر احمد صلاح أحمد</t>
+  </si>
+  <si>
+    <t>يوسف ابراهيم</t>
+  </si>
+  <si>
+    <t>البراء أشرف شوقي</t>
+  </si>
+  <si>
+    <t>صهيب هشام عبد المنعم عبدالسلام</t>
+  </si>
+  <si>
+    <t>حبيبه حسام الجندي</t>
+  </si>
+  <si>
+    <t>فارس احمد محمد</t>
+  </si>
+  <si>
+    <t>كريم علي رجب</t>
+  </si>
+  <si>
+    <t>محروص داود محروص</t>
+  </si>
+  <si>
+    <t>روان سلامه فرج</t>
+  </si>
+  <si>
+    <t>سيف ياسر سمير</t>
+  </si>
+  <si>
+    <t>رباب احمد محمد</t>
+  </si>
+  <si>
+    <t>رحاب صابر عبدالرحمن</t>
+  </si>
+  <si>
+    <t>محمود محمد عبدالله</t>
+  </si>
+  <si>
+    <t>احمد محسن محمود</t>
+  </si>
+  <si>
+    <t>امنيه سند مغيربى</t>
+  </si>
+  <si>
+    <t>حسناء حاتم عبد الحليم مصطفى</t>
+  </si>
+  <si>
+    <t>احمد عصمت قاسم</t>
+  </si>
+  <si>
+    <t>عبد الرحمن ياسر رفعت</t>
+  </si>
+  <si>
+    <t>شهد صلاح إبراهيم</t>
+  </si>
+  <si>
+    <t>أدهم محمود سعد</t>
+  </si>
+  <si>
+    <t>محمود مختار محمود</t>
+  </si>
+  <si>
+    <t>خالد تامر عبد الفتاح ذكي</t>
+  </si>
+  <si>
+    <t>محمد تامر السيد</t>
+  </si>
+  <si>
+    <t>زياد وائل حسن راشد</t>
+  </si>
+  <si>
+    <t>هاجر رمضان شوقي</t>
+  </si>
+  <si>
+    <t>مصطفى محمد رمضان</t>
+  </si>
+  <si>
+    <t>عبد الرحمن احمد الشحات</t>
+  </si>
+  <si>
+    <t>أحمد عنايت عبدالحميد</t>
+  </si>
+  <si>
+    <t>لمياء علاء الدين</t>
+  </si>
+  <si>
+    <t>يوسف عمر سعد</t>
+  </si>
+  <si>
+    <t>حازم نادى الازهرى</t>
+  </si>
+  <si>
+    <t>وعد عمرو محمد طه</t>
+  </si>
+  <si>
+    <t>محمد هاني علي</t>
+  </si>
+  <si>
+    <t>محمد احمد تحسين</t>
+  </si>
+  <si>
+    <t>سهيله محمود ابو النضر</t>
+  </si>
+  <si>
+    <t>أحمد الصافي أحمد</t>
+  </si>
+  <si>
+    <t>ياسمين سيد علي</t>
+  </si>
+  <si>
+    <t>احمد هانى شوقى</t>
+  </si>
+  <si>
+    <t>جنى وليد زيدان</t>
+  </si>
+  <si>
+    <t>آية عصام ابوزيد</t>
+  </si>
+  <si>
+    <t>زينب أحمد عبدالله</t>
+  </si>
+  <si>
+    <t>أحمد عصام السيد</t>
+  </si>
+  <si>
+    <t>علاء الدين اسعد شرابي</t>
+  </si>
+  <si>
+    <t>محمد سمير حمدي</t>
+  </si>
+  <si>
+    <t>حسام انور عطيه</t>
+  </si>
+  <si>
+    <t>X12A9B7C</t>
+  </si>
+  <si>
+    <t>Q91L7P6M</t>
+  </si>
+  <si>
+    <t>R32J4K8N</t>
+  </si>
+  <si>
+    <t>A74P3T1L</t>
+  </si>
+  <si>
+    <t>F82K5D4H</t>
+  </si>
+  <si>
+    <t>Z63N1X9Y</t>
+  </si>
+  <si>
+    <t>G56T9A7B</t>
+  </si>
+  <si>
+    <t>B41C8L3D</t>
+  </si>
+  <si>
+    <t>T73P9M6K</t>
+  </si>
+  <si>
+    <t>V92R4N5J</t>
+  </si>
+  <si>
+    <t>K81Q6H3L</t>
+  </si>
+  <si>
+    <t>M47N2P8Q</t>
+  </si>
+  <si>
+    <t>S25L8R1F</t>
+  </si>
+  <si>
+    <t>H19D7K3C</t>
+  </si>
+  <si>
+    <t>L34T8X6Q</t>
+  </si>
+  <si>
+    <t>P98F1J7R</t>
+  </si>
+  <si>
+    <t>C74M9B2P</t>
+  </si>
+  <si>
+    <t>N82Q5L6D</t>
+  </si>
+  <si>
+    <t>D23H4P7T</t>
+  </si>
+  <si>
+    <t>Q16K8N3M</t>
+  </si>
+  <si>
+    <t>X91R7B5A</t>
+  </si>
+  <si>
+    <t>G73L2T6N</t>
+  </si>
+  <si>
+    <t>F84P9M1D</t>
+  </si>
+  <si>
+    <t>R67T3H8P</t>
+  </si>
+  <si>
+    <t>J25L9D4Q</t>
+  </si>
+  <si>
+    <t>K41N8P6L</t>
+  </si>
+  <si>
+    <t>H38B7R2T</t>
+  </si>
+  <si>
+    <t>M65K9C1N</t>
+  </si>
+  <si>
+    <t>N23L7T5P</t>
+  </si>
+  <si>
+    <t>V49F8P3L</t>
+  </si>
+  <si>
+    <t>Z81Q6R7D</t>
+  </si>
+  <si>
+    <t>P75M2T9K</t>
+  </si>
+  <si>
+    <t>C32L8B7F</t>
+  </si>
+  <si>
+    <t>X47R9M2T</t>
+  </si>
+  <si>
+    <t>Q92H5K6B</t>
+  </si>
+  <si>
+    <t>L16F8N3C</t>
+  </si>
+  <si>
+    <t>T81M9P4K</t>
+  </si>
+  <si>
+    <t>D27L6B5P</t>
+  </si>
+  <si>
+    <t>P43K7R1L</t>
+  </si>
+  <si>
+    <t>N98T5D2Q</t>
+  </si>
+  <si>
+    <t>K24H8P7M</t>
+  </si>
+  <si>
+    <t>M61B9L4Q</t>
+  </si>
+  <si>
+    <t>F73L8D1T</t>
+  </si>
+  <si>
+    <t>R28N5K7B</t>
+  </si>
+  <si>
+    <t>G94P2M6L</t>
+  </si>
+  <si>
+    <t>X52T7H9N</t>
+  </si>
+  <si>
+    <t>Q61K9M3F</t>
+  </si>
+  <si>
+    <t>L85P4R2C</t>
+  </si>
+  <si>
+    <t>T92M6B7P</t>
+  </si>
+  <si>
+    <t>H73N8K4D</t>
+  </si>
+  <si>
+    <t>J54P7R1L</t>
+  </si>
+  <si>
+    <t>C86M9T3F</t>
+  </si>
+  <si>
+    <t>P39K2B8N</t>
+  </si>
+  <si>
+    <t>N61R4L7D</t>
+  </si>
+  <si>
+    <t>V82T5P3K</t>
+  </si>
+  <si>
+    <t>L24F8M7N</t>
+  </si>
+  <si>
+    <t>X49B7K2T</t>
+  </si>
+  <si>
+    <t>Q31R8P6L</t>
+  </si>
+  <si>
+    <t>G74N9H2F</t>
+  </si>
+  <si>
+    <t>D58K7L3P</t>
+  </si>
+  <si>
+    <t>T63P9B4L</t>
+  </si>
+  <si>
+    <t>P17M6R5N</t>
+  </si>
+  <si>
+    <t>F42L8K9T</t>
+  </si>
+  <si>
+    <t>H98N7P1L</t>
+  </si>
+  <si>
+    <t>R61M4T2Q</t>
   </si>
 </sst>
 </file>
@@ -654,15 +738,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="18.125" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,563 +765,663 @@
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>17</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>65</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>54</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>100</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -741,7 +741,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
   <si>
     <t>Grade</t>
   </si>
@@ -418,6 +418,105 @@
   </si>
   <si>
     <t>R61M4T2Q</t>
+  </si>
+  <si>
+    <t>شهد محمد الزنقلى</t>
+  </si>
+  <si>
+    <t>محمد على خضراوى</t>
+  </si>
+  <si>
+    <t>مانويل وصفى جورجى</t>
+  </si>
+  <si>
+    <t>حسن ممدوح حسن</t>
+  </si>
+  <si>
+    <t>شهد معتصم قرني</t>
+  </si>
+  <si>
+    <t>انس هاني السبكي</t>
+  </si>
+  <si>
+    <t>حسن علي حسن</t>
+  </si>
+  <si>
+    <t>Menna tallah mohamed mohamed</t>
+  </si>
+  <si>
+    <t>محمود حسن محمد</t>
+  </si>
+  <si>
+    <t>حسن صالح حسن</t>
+  </si>
+  <si>
+    <t>مروه سلامه عاشور</t>
+  </si>
+  <si>
+    <t>شهد احمد عبدالوهاب</t>
+  </si>
+  <si>
+    <t>شهد حمدي محمد</t>
+  </si>
+  <si>
+    <t>أحمد محمد عبد المحسن</t>
+  </si>
+  <si>
+    <t>طارق محمد عبد الحكم</t>
+  </si>
+  <si>
+    <t>هويدا معوض ابراهيم</t>
+  </si>
+  <si>
+    <t>L83X1N7P</t>
+  </si>
+  <si>
+    <t>Q45K2R9T</t>
+  </si>
+  <si>
+    <t>M92T6H3B</t>
+  </si>
+  <si>
+    <t>F74P8C5L</t>
+  </si>
+  <si>
+    <t>D61L7J2N</t>
+  </si>
+  <si>
+    <t>X94B6T8P</t>
+  </si>
+  <si>
+    <t>K35H9M2F</t>
+  </si>
+  <si>
+    <t>N72P4Q8R</t>
+  </si>
+  <si>
+    <t>T83F1L7K</t>
+  </si>
+  <si>
+    <t>R96B5N3M</t>
+  </si>
+  <si>
+    <t>P41X7C9L</t>
+  </si>
+  <si>
+    <t>Z28K6T3P</t>
+  </si>
+  <si>
+    <t>L84X1N7P</t>
+  </si>
+  <si>
+    <t>Q46K2R9T</t>
+  </si>
+  <si>
+    <t>M92T8H3B</t>
+  </si>
+  <si>
+    <t>F74P9C5L</t>
+  </si>
+  <si>
+    <t>D61R7J2N</t>
   </si>
 </sst>
 </file>
@@ -738,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1379,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1288,7 +1390,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1296,7 +1401,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1304,7 +1412,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1312,7 +1423,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1320,7 +1434,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1328,7 +1445,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1336,7 +1456,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1344,7 +1467,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1352,7 +1478,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1360,7 +1489,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1368,7 +1500,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1376,7 +1511,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1384,7 +1522,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1392,7 +1533,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1400,7 +1544,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1408,7 +1555,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
@@ -1416,7 +1566,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
@@ -1424,7 +1577,195 @@
         <v>132</v>
       </c>
     </row>
+    <row r="67" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
-  <si>
-    <t>Grade</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -517,6 +514,24 @@
   </si>
   <si>
     <t>D61R7J2N</t>
+  </si>
+  <si>
+    <t>Grade1</t>
+  </si>
+  <si>
+    <t>Grade2</t>
+  </si>
+  <si>
+    <t>Grade3</t>
+  </si>
+  <si>
+    <t>Grade4</t>
+  </si>
+  <si>
+    <t>Grade5</t>
+  </si>
+  <si>
+    <t>Grade6</t>
   </si>
 </sst>
 </file>
@@ -837,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -851,917 +866,2162 @@
     <col min="4" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>165</v>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>Grade6</t>
+  </si>
+  <si>
+    <t>عبدالرحمن محمد</t>
+  </si>
+  <si>
+    <t>D61R8J2N</t>
   </si>
 </sst>
 </file>
@@ -852,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3024,6 +3030,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -534,10 +534,10 @@
     <t>Grade6</t>
   </si>
   <si>
-    <t>عبدالرحمن محمد</t>
-  </si>
-  <si>
     <t>D61R8J2N</t>
+  </si>
+  <si>
+    <t>نورهان عاطف</t>
   </si>
 </sst>
 </file>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -537,7 +537,37 @@
     <t>D61R8J2N</t>
   </si>
   <si>
-    <t>نورهان عاطف</t>
+    <t>مانويل وصفى</t>
+  </si>
+  <si>
+    <t>B57L3N9Q</t>
+  </si>
+  <si>
+    <t>B57Y4N9Q</t>
+  </si>
+  <si>
+    <t>P81X4R7K</t>
+  </si>
+  <si>
+    <t>Mahmoud mokhtar mahmoud</t>
+  </si>
+  <si>
+    <t>T92M6J4F</t>
+  </si>
+  <si>
+    <t>Tadaima.Egy</t>
+  </si>
+  <si>
+    <t>نورهان عاطف مصطفي</t>
+  </si>
+  <si>
+    <t>allStudentsTadaima</t>
+  </si>
+  <si>
+    <t>ريناد مؤمن مختار</t>
+  </si>
+  <si>
+    <t>Q34H8C1L</t>
   </si>
 </sst>
 </file>
@@ -858,17 +888,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
@@ -3035,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>171</v>
@@ -3053,6 +3083,162 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
         <v>0</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>Q34H8C1L</t>
+  </si>
+  <si>
+    <t>محمود محمد مصلحي</t>
+  </si>
+  <si>
+    <t>X46H7M8B</t>
   </si>
 </sst>
 </file>
@@ -888,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3242,6 +3248,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>X46H7M8B</t>
+  </si>
+  <si>
+    <t>ExamsNumber</t>
   </si>
 </sst>
 </file>
@@ -894,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,7 +911,7 @@
     <col min="4" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -933,8 +936,11 @@
       <c r="H1" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -959,8 +965,11 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -985,8 +994,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1011,8 +1023,11 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1037,8 +1052,11 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1063,8 +1081,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1089,8 +1110,11 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1115,8 +1139,11 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1141,8 +1168,11 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1167,8 +1197,11 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1193,8 +1226,11 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1219,8 +1255,11 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1245,8 +1284,11 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1271,8 +1313,11 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1297,8 +1342,11 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1323,8 +1371,11 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1349,8 +1400,11 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1375,8 +1429,11 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1401,8 +1458,11 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1453,8 +1516,11 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1479,8 +1545,11 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1505,8 +1574,11 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1531,8 +1603,11 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1557,10 +1632,13 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -1583,8 +1661,11 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1609,8 +1690,11 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1635,8 +1719,11 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1661,8 +1748,11 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1687,8 +1777,11 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1713,8 +1806,11 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1739,8 +1835,11 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1765,8 +1864,11 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1791,8 +1893,11 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1817,8 +1922,11 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1843,8 +1951,11 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1869,8 +1980,11 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1895,10 +2009,13 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -1921,8 +2038,11 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -1947,8 +2067,11 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -1973,8 +2096,11 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -1999,8 +2125,11 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2025,8 +2154,11 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -2051,8 +2183,11 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -2077,8 +2212,11 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -2103,8 +2241,11 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -2129,8 +2270,11 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -2155,8 +2299,11 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2181,8 +2328,11 @@
       <c r="H49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2207,8 +2357,11 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2233,8 +2386,11 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2259,8 +2415,11 @@
       <c r="H52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -2285,8 +2444,11 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2311,8 +2473,11 @@
       <c r="H54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -2337,8 +2502,11 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -2363,8 +2531,11 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -2389,8 +2560,11 @@
       <c r="H57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -2415,8 +2589,11 @@
       <c r="H58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="H60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -2493,8 +2676,11 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -2519,8 +2705,11 @@
       <c r="H62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -2545,8 +2734,11 @@
       <c r="H63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -2571,8 +2763,11 @@
       <c r="H64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -2597,8 +2792,11 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2623,8 +2821,11 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -2649,8 +2850,11 @@
       <c r="H67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -2675,8 +2879,11 @@
       <c r="H68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -2701,8 +2908,11 @@
       <c r="H69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -2727,8 +2937,11 @@
       <c r="H70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -2753,8 +2966,11 @@
       <c r="H71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -2779,8 +2995,11 @@
       <c r="H72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2805,10 +3024,13 @@
       <c r="H73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>138</v>
@@ -2831,8 +3053,11 @@
       <c r="H74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -2857,8 +3082,11 @@
       <c r="H75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -2883,8 +3111,11 @@
       <c r="H76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -2909,8 +3140,11 @@
       <c r="H77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -2935,8 +3169,11 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -2961,8 +3198,11 @@
       <c r="H79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -2987,8 +3227,11 @@
       <c r="H80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -3013,8 +3256,11 @@
       <c r="H81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -3039,8 +3285,11 @@
       <c r="H82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -3065,8 +3314,11 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -3091,8 +3343,11 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -3117,8 +3372,11 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -3143,10 +3401,13 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>143</v>
@@ -3169,10 +3430,13 @@
       <c r="H87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>176</v>
@@ -3195,10 +3459,13 @@
       <c r="H88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>178</v>
@@ -3221,8 +3488,11 @@
       <c r="H89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -3247,16 +3517,37 @@
       <c r="H90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>ExamsNumber</t>
+  </si>
+  <si>
+    <t>عمر احمد محمد</t>
+  </si>
+  <si>
+    <t>N98T5T1Q</t>
   </si>
 </sst>
 </file>
@@ -897,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91:H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3550,6 +3556,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="92" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>N98T5T1Q</t>
+  </si>
+  <si>
+    <t>K08T5T1Q</t>
+  </si>
+  <si>
+    <t>Mohamed waleed mohamed</t>
   </si>
 </sst>
 </file>
@@ -903,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91:H92"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3585,6 +3591,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -589,19 +589,30 @@
   </si>
   <si>
     <t>Mohamed waleed mohamed</t>
+  </si>
+  <si>
+    <t>Abdelrahman Abdullah AbuElwafa</t>
+  </si>
+  <si>
+    <t>K79T5T1Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,10 +635,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3605,6 +3619,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -591,28 +591,29 @@
     <t>Mohamed waleed mohamed</t>
   </si>
   <si>
-    <t>Abdelrahman Abdullah AbuElwafa</t>
-  </si>
-  <si>
     <t>K79T5T1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نصر حماده نصر عبدالحميد  </t>
+  </si>
+  <si>
+    <t>فيرنا سمير</t>
+  </si>
+  <si>
+    <t>K79T5R2Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -635,13 +636,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3623,13 +3621,27 @@
       <c r="A94" s="1">
         <v>0</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="I94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I95" s="1">
         <v>0</v>
       </c>
     </row>
